--- a/data/trans_media/IQ3003_MoAR-Estudios-trans_media.xlsx
+++ b/data/trans_media/IQ3003_MoAR-Estudios-trans_media.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,21; 7,52</t>
+          <t>5,23; 7,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,23; 6,89</t>
+          <t>5,2; 6,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,37; 15,95</t>
+          <t>5,32; 14,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,7; 5,63</t>
+          <t>4,67; 5,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,33; 7,33</t>
+          <t>5,33; 7,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,21; 10,14</t>
+          <t>5,17; 9,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,22; 6,68</t>
+          <t>5,15; 6,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,48; 6,76</t>
+          <t>5,41; 6,7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,56; 10,1</t>
+          <t>5,62; 10,32</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,92; 5,64</t>
+          <t>4,91; 5,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,44; 6,36</t>
+          <t>5,42; 6,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,36; 6,21</t>
+          <t>5,32; 6,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,88; 5,51</t>
+          <t>4,87; 5,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,23; 5,74</t>
+          <t>5,25; 5,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,54; 6,41</t>
+          <t>5,52; 6,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,99; 5,47</t>
+          <t>4,97; 5,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,41; 5,94</t>
+          <t>5,42; 5,91</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,53; 6,17</t>
+          <t>5,56; 6,2</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,85; 5,49</t>
+          <t>4,86; 5,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,98; 5,93</t>
+          <t>5,02; 6,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,1; 5,89</t>
+          <t>5,1; 5,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,54; 5,51</t>
+          <t>4,51; 5,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,26; 9,47</t>
+          <t>5,26; 9,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,45; 6,79</t>
+          <t>5,42; 6,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,78; 5,36</t>
+          <t>4,79; 5,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,3; 7,79</t>
+          <t>5,3; 7,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,37; 6,12</t>
+          <t>5,36; 6,08</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,06; 5,61</t>
+          <t>5,06; 5,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,42; 6,07</t>
+          <t>5,44; 6,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,42; 6,1</t>
+          <t>5,43; 6,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,87; 5,38</t>
+          <t>4,85; 5,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1150,22 +1150,22 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,64; 6,34</t>
+          <t>5,63; 6,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,02; 5,39</t>
+          <t>5,01; 5,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,51; 6,12</t>
+          <t>5,49; 6,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,62; 6,14</t>
+          <t>5,62; 6,09</t>
         </is>
       </c>
     </row>
